--- a/Small Packaging Inspection 2023.xlsx
+++ b/Small Packaging Inspection 2023.xlsx
@@ -40005,43 +40005,121 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n"/>
-      <c r="B9" s="3" t="n"/>
-      <c r="C9" s="3" t="n"/>
-      <c r="D9" s="3" t="n"/>
-      <c r="E9" s="3" t="n"/>
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>03/08/2023</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="n">
+        <v>1</v>
+      </c>
       <c r="F9" s="3" t="n"/>
       <c r="G9" s="3" t="n"/>
       <c r="H9" s="3" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n"/>
-      <c r="B10" s="3" t="n"/>
-      <c r="C10" s="3" t="n"/>
-      <c r="D10" s="3" t="n"/>
-      <c r="E10" s="3" t="n"/>
-      <c r="F10" s="3" t="n"/>
-      <c r="G10" s="3" t="n"/>
-      <c r="H10" s="3" t="n"/>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>d,j</t>
+        </is>
+      </c>
+      <c r="H10" s="3" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n"/>
-      <c r="B11" s="3" t="n"/>
-      <c r="C11" s="3" t="n"/>
-      <c r="D11" s="3" t="n"/>
-      <c r="E11" s="3" t="n"/>
-      <c r="F11" s="3" t="n"/>
-      <c r="G11" s="3" t="n"/>
-      <c r="H11" s="3" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>d, j</t>
+        </is>
+      </c>
+      <c r="H11" s="3" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n"/>
-      <c r="B12" s="3" t="n"/>
-      <c r="C12" s="3" t="n"/>
-      <c r="D12" s="3" t="n"/>
-      <c r="E12" s="3" t="n"/>
-      <c r="F12" s="3" t="n"/>
-      <c r="G12" s="3" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>102030</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>d, j</t>
+        </is>
+      </c>
       <c r="H12" s="3" t="n"/>
     </row>
     <row r="13">

--- a/Small Packaging Inspection 2023.xlsx
+++ b/Small Packaging Inspection 2023.xlsx
@@ -40123,14 +40123,44 @@
       <c r="H12" s="3" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n"/>
-      <c r="B13" s="3" t="n"/>
-      <c r="C13" s="3" t="n"/>
-      <c r="D13" s="3" t="n"/>
-      <c r="E13" s="3" t="n"/>
-      <c r="F13" s="3" t="n"/>
-      <c r="G13" s="3" t="n"/>
-      <c r="H13" s="3" t="n"/>
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>04/08/2023</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>SA-31519</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>d, j</t>
+        </is>
+      </c>
+      <c r="H13" s="3" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n"/>

--- a/Small Packaging Inspection 2023.xlsx
+++ b/Small Packaging Inspection 2023.xlsx
@@ -40164,13 +40164,35 @@
     </row>
     <row r="14">
       <c r="A14" s="3" t="n"/>
-      <c r="B14" s="3" t="n"/>
-      <c r="C14" s="3" t="n"/>
-      <c r="D14" s="3" t="n"/>
-      <c r="E14" s="3" t="n"/>
-      <c r="F14" s="3" t="n"/>
-      <c r="G14" s="3" t="n"/>
-      <c r="H14" s="3" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D14" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>d,j</t>
+        </is>
+      </c>
+      <c r="H14" s="3" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n"/>

--- a/Small Packaging Inspection 2023.xlsx
+++ b/Small Packaging Inspection 2023.xlsx
@@ -40333,13 +40333,35 @@
     </row>
     <row r="19">
       <c r="A19" s="36" t="n"/>
-      <c r="B19" s="36" t="n"/>
-      <c r="C19" s="36" t="n"/>
-      <c r="D19" s="36" t="n"/>
-      <c r="E19" s="36" t="n"/>
-      <c r="F19" s="36" t="n"/>
-      <c r="G19" s="36" t="n"/>
-      <c r="H19" s="36" t="n"/>
+      <c r="B19" s="36" t="n">
+        <v>102332</v>
+      </c>
+      <c r="C19" s="36" t="inlineStr">
+        <is>
+          <t>SD-6507</t>
+        </is>
+      </c>
+      <c r="D19" s="36" t="n">
+        <v>50</v>
+      </c>
+      <c r="E19" s="36" t="n">
+        <v>1500</v>
+      </c>
+      <c r="F19" s="36" t="inlineStr">
+        <is>
+          <t>pass</t>
+        </is>
+      </c>
+      <c r="G19" s="36" t="inlineStr">
+        <is>
+          <t>goel, arushi</t>
+        </is>
+      </c>
+      <c r="H19" s="36" t="inlineStr">
+        <is>
+          <t>q</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="36" t="n"/>

--- a/Small Packaging Inspection 2023.xlsx
+++ b/Small Packaging Inspection 2023.xlsx
@@ -40364,14 +40364,36 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="36" t="n"/>
-      <c r="B20" s="36" t="n"/>
-      <c r="C20" s="36" t="n"/>
-      <c r="D20" s="36" t="n"/>
-      <c r="E20" s="36" t="n"/>
-      <c r="F20" s="36" t="n"/>
-      <c r="G20" s="36" t="n"/>
-      <c r="H20" s="36" t="n"/>
+      <c r="A20" s="36" t="inlineStr">
+        <is>
+          <t>22/08/2023</t>
+        </is>
+      </c>
+      <c r="B20" s="36" t="n">
+        <v>123456</v>
+      </c>
+      <c r="C20" s="36" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D20" s="36" t="n">
+        <v>8</v>
+      </c>
+      <c r="E20" s="36" t="n">
+        <v>123</v>
+      </c>
+      <c r="F20" s="36" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="G20" s="36" t="inlineStr">
+        <is>
+          <t>d, j</t>
+        </is>
+      </c>
+      <c r="H20" s="36" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="36" t="n"/>

--- a/Small Packaging Inspection 2023.xlsx
+++ b/Small Packaging Inspection 2023.xlsx
@@ -1082,7 +1082,7 @@
       <selection pane="bottomLeft" activeCell="C174" sqref="C174"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="15.578125" customWidth="1" style="9" min="1" max="1"/>
     <col width="15.578125" customWidth="1" style="4" min="2" max="8"/>
@@ -3170,7 +3170,7 @@
       <selection activeCell="N326" sqref="N326"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="15.578125" customWidth="1" style="4" min="1" max="8"/>
     <col width="9.15625" customWidth="1" style="5" min="34" max="34"/>
@@ -6777,7 +6777,7 @@
       <selection activeCell="M319" sqref="M319"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="15.578125" customWidth="1" style="4" min="1" max="8"/>
     <col width="9.15625" customWidth="1" style="5" min="34" max="34"/>
@@ -10384,7 +10384,7 @@
       <selection activeCell="M322" sqref="M322"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="15.578125" customWidth="1" style="4" min="1" max="8"/>
     <col width="9.15625" customWidth="1" style="5" min="34" max="34"/>
@@ -13991,7 +13991,7 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="15.578125" customWidth="1" style="4" min="1" max="8"/>
     <col width="8.578125" customWidth="1" style="5" min="34" max="34"/>
@@ -17613,7 +17613,7 @@
       <selection activeCell="L137" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="15.578125" customWidth="1" style="4" min="1" max="8"/>
     <col width="8.578125" customWidth="1" style="5" min="34" max="34"/>
@@ -19102,7 +19102,7 @@
       <selection pane="bottomLeft" activeCell="M242" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="15.578125" customWidth="1" style="4" min="1" max="8"/>
     <col width="9.41796875" customWidth="1" style="5" min="34" max="34"/>
@@ -24830,7 +24830,7 @@
       <selection activeCell="G189" sqref="A1:H189"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="15.578125" customWidth="1" style="4" min="1" max="8"/>
     <col width="8.578125" customWidth="1" style="5" min="34" max="34"/>
@@ -28596,7 +28596,7 @@
       <selection activeCell="F191" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="15.578125" customWidth="1" style="4" min="1" max="8"/>
     <col width="9.15625" customWidth="1" style="5" min="34" max="34"/>
@@ -32577,7 +32577,7 @@
       <selection pane="bottomLeft" activeCell="C1" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="15.578125" customWidth="1" style="4" min="1" max="8"/>
     <col width="9.15625" customWidth="1" style="5" min="34" max="34"/>
@@ -36096,7 +36096,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1:I146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="15.578125" customWidth="1" style="4" min="1" max="8"/>
     <col width="9.15625" customWidth="1" style="5" min="34" max="34"/>
@@ -39657,7 +39657,7 @@
       <selection pane="bottomLeft" activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="15.578125" customWidth="1" style="4" min="1" max="8"/>
     <col width="9.15625" customWidth="1" style="5" min="34" max="34"/>
@@ -40396,14 +40396,36 @@
       <c r="H20" s="36" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="36" t="n"/>
-      <c r="B21" s="36" t="n"/>
-      <c r="C21" s="36" t="n"/>
-      <c r="D21" s="36" t="n"/>
-      <c r="E21" s="36" t="n"/>
-      <c r="F21" s="36" t="n"/>
-      <c r="G21" s="36" t="n"/>
-      <c r="H21" s="36" t="n"/>
+      <c r="A21" s="36" t="inlineStr">
+        <is>
+          <t>23/08/2023</t>
+        </is>
+      </c>
+      <c r="B21" s="36" t="n">
+        <v>123456</v>
+      </c>
+      <c r="C21" s="36" t="inlineStr">
+        <is>
+          <t>1020</t>
+        </is>
+      </c>
+      <c r="D21" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="E21" s="36" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" s="36" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="G21" s="36" t="inlineStr">
+        <is>
+          <t>d,j</t>
+        </is>
+      </c>
+      <c r="H21" s="36" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="36" t="n"/>
@@ -43701,7 +43723,7 @@
       <selection activeCell="P323" sqref="P323"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
     <col width="15.578125" customWidth="1" style="4" min="1" max="8"/>
     <col width="9.15625" customWidth="1" style="5" min="34" max="34"/>

--- a/Small Packaging Inspection 2023.xlsx
+++ b/Small Packaging Inspection 2023.xlsx
@@ -40656,53 +40656,172 @@
     </row>
     <row r="29">
       <c r="A29" s="3" t="n"/>
-      <c r="B29" s="3" t="n"/>
-      <c r="C29" s="3" t="n"/>
-      <c r="D29" s="3" t="n"/>
-      <c r="E29" s="3" t="n"/>
-      <c r="F29" s="3" t="n"/>
-      <c r="G29" s="3" t="n"/>
-      <c r="H29" s="3" t="n"/>
+      <c r="B29" s="3" t="n">
+        <v>120345</v>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F29" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="G29" s="3" t="inlineStr">
+        <is>
+          <t>d,j</t>
+        </is>
+      </c>
+      <c r="H29" s="3" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>picture</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n"/>
-      <c r="B30" s="3" t="n"/>
-      <c r="C30" s="3" t="n"/>
-      <c r="D30" s="3" t="n"/>
-      <c r="E30" s="3" t="n"/>
-      <c r="F30" s="3" t="n"/>
-      <c r="G30" s="3" t="n"/>
-      <c r="H30" s="3" t="n"/>
+      <c r="B30" s="3" t="n">
+        <v>123456</v>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>102030</t>
+        </is>
+      </c>
+      <c r="D30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F30" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="G30" s="3" t="inlineStr">
+        <is>
+          <t>d,j</t>
+        </is>
+      </c>
+      <c r="H30" s="3" t="inlineStr"/>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>picture</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n"/>
-      <c r="B31" s="3" t="n"/>
-      <c r="C31" s="3" t="n"/>
-      <c r="D31" s="3" t="n"/>
-      <c r="E31" s="3" t="n"/>
-      <c r="F31" s="3" t="n"/>
-      <c r="G31" s="3" t="n"/>
-      <c r="H31" s="3" t="n"/>
+      <c r="B31" s="3" t="n">
+        <v>123456</v>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="D31" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E31" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F31" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="G31" s="3" t="inlineStr">
+        <is>
+          <t>d,j</t>
+        </is>
+      </c>
+      <c r="H31" s="3" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>picture</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="n"/>
-      <c r="B32" s="3" t="n"/>
-      <c r="C32" s="3" t="n"/>
-      <c r="D32" s="3" t="n"/>
-      <c r="E32" s="3" t="n"/>
-      <c r="F32" s="3" t="n"/>
-      <c r="G32" s="3" t="n"/>
-      <c r="H32" s="3" t="n"/>
+      <c r="A32" s="3" t="inlineStr">
+        <is>
+          <t>29/08/2023</t>
+        </is>
+      </c>
+      <c r="B32" s="3" t="n">
+        <v>100001</v>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3" t="n">
+        <v>101</v>
+      </c>
+      <c r="F32" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="G32" s="3" t="inlineStr">
+        <is>
+          <t>d, j</t>
+        </is>
+      </c>
+      <c r="H32" s="3" t="inlineStr"/>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>picture</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n"/>
-      <c r="B33" s="3" t="n"/>
-      <c r="C33" s="3" t="n"/>
-      <c r="D33" s="3" t="n"/>
-      <c r="E33" s="3" t="n"/>
-      <c r="F33" s="3" t="n"/>
-      <c r="G33" s="3" t="n"/>
-      <c r="H33" s="3" t="n"/>
+      <c r="B33" s="3" t="n">
+        <v>100001</v>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="D33" s="3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3" t="n">
+        <v>110</v>
+      </c>
+      <c r="F33" s="3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+      <c r="G33" s="3" t="inlineStr">
+        <is>
+          <t>d, j</t>
+        </is>
+      </c>
+      <c r="H33" s="3" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>picture</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="n"/>
@@ -43866,6 +43985,11 @@
   <hyperlinks>
     <hyperlink ref="I23" r:id="rId1"/>
     <hyperlink ref="I27" r:id="rId2"/>
+    <hyperlink ref="I29" r:id="rId3"/>
+    <hyperlink ref="I30" r:id="rId4"/>
+    <hyperlink ref="I31" r:id="rId5"/>
+    <hyperlink ref="I32" r:id="rId6"/>
+    <hyperlink ref="I33" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
